--- a/data/unapproved_childcare_facilities/data.xlsx
+++ b/data/unapproved_childcare_facilities/data.xlsx
@@ -475,7 +475,7 @@
         <v>S47.4.1</v>
       </c>
       <c r="I2" t="str">
-        <v>7：30～18：30</v>
+        <v>7：30～18：30（18：00～18：45）</v>
       </c>
       <c r="J2" t="str">
         <v>休</v>
@@ -557,7 +557,7 @@
         <v>２４時間保育クラブキッズ</v>
       </c>
       <c r="E4" t="str">
-        <v>761-0071 高松市藤塚町二丁目12-１3第2八十川ﾋﾞﾙ1F</v>
+        <v>761-0071 高松市藤塚町二丁目12-１3第2八十川ビル1F</v>
       </c>
       <c r="F4" t="str">
         <v>087-837-5272</v>
@@ -648,7 +648,7 @@
         <v>134.083089</v>
       </c>
       <c r="D6" t="str">
-        <v>ﾘﾊﾞﾃｨｰ・ｲﾝﾀｰﾅｼｮﾅﾙｱｶﾃﾞﾐｰ高松校　英語バイリンガル保育園</v>
+        <v>リバティー・インターナショナルアカデミー高松校　英語バイリンガル保育園</v>
       </c>
       <c r="E6" t="str">
         <v>761-0311 高松市元山町689-2</v>
@@ -657,7 +657,7 @@
         <v>087-813-5036</v>
       </c>
       <c r="G6" t="str">
-        <v>株式会社　ﾘﾊﾞﾃｨｰ・ｲﾝﾀｰﾅｼｮﾅﾙｱｶﾃﾞﾐｰ　代表取締役　森村　文代</v>
+        <v>株式会社　リバティー・インターナショナルアカデミー　代表取締役　森村　文代</v>
       </c>
       <c r="H6" t="str">
         <v>H21.4.1</v>

--- a/data/unapproved_childcare_facilities/data.xlsx
+++ b/data/unapproved_childcare_facilities/data.xlsx
@@ -1019,16 +1019,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>34.3238</v>
+        <v>34.32573</v>
       </c>
       <c r="C14" t="str">
-        <v>134.063258</v>
+        <v>134.061684</v>
       </c>
       <c r="D14" t="str">
         <v>英語保育園　リトル　ダビンチ</v>
       </c>
       <c r="E14" t="str">
-        <v>760-0078 高松市今里町二丁目14-10</v>
+        <v>760-0078 高松市今里町二丁目4-10</v>
       </c>
       <c r="F14" t="str">
         <v>087-813-6378</v>

--- a/data/unapproved_childcare_facilities/data.xlsx
+++ b/data/unapproved_childcare_facilities/data.xlsx
@@ -1066,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>34.344824</v>
+        <v>34.343479</v>
       </c>
       <c r="C15" t="str">
-        <v>134.044484</v>
+        <v>134.044132</v>
       </c>
       <c r="D15" t="str">
         <v>高松インターナショナルスクール</v>
@@ -1113,10 +1113,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>34.21907</v>
+        <v>34.22806</v>
       </c>
       <c r="C16" t="str">
-        <v>134.074657</v>
+        <v>134.078483</v>
       </c>
       <c r="D16" t="str">
         <v>森のようちえんお山歩隊</v>
@@ -1160,10 +1160,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>34.343416</v>
+        <v>34.3434094</v>
       </c>
       <c r="C17" t="str">
-        <v>134.032021</v>
+        <v>134.032015</v>
       </c>
       <c r="D17" t="str">
         <v>二番丁幼稚園</v>
@@ -1207,10 +1207,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>34.348653</v>
+        <v>34.347514</v>
       </c>
       <c r="C18" t="str">
-        <v>134.062368</v>
+        <v>134.058265</v>
       </c>
       <c r="D18" t="str">
         <v>香川県立中央病院附属保育所</v>
@@ -1254,10 +1254,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.343463</v>
+        <v>34.345955</v>
       </c>
       <c r="C19" t="str">
-        <v>134.090517</v>
+        <v>134.088467</v>
       </c>
       <c r="D19" t="str">
         <v>屋島総合病院院内保育所</v>
@@ -1301,10 +1301,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>34.34065</v>
+        <v>34.340639</v>
       </c>
       <c r="C20" t="str">
-        <v>134.041295</v>
+        <v>134.041318</v>
       </c>
       <c r="D20" t="str">
         <v>高松赤十字病院院内保育所</v>
@@ -1348,10 +1348,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>34.333174</v>
+        <v>34.333166</v>
       </c>
       <c r="C21" t="str">
-        <v>134.003004</v>
+        <v>134.002993</v>
       </c>
       <c r="D21" t="str">
         <v>キナシ大林病院すみれ保育園</v>

--- a/data/unapproved_childcare_facilities/data.xlsx
+++ b/data/unapproved_childcare_facilities/data.xlsx
@@ -1397,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>34.296125</v>
+        <v>34.296151</v>
       </c>
       <c r="C22" t="str">
-        <v>134.057749</v>
+        <v>134.057728</v>
       </c>
       <c r="D22" t="str">
         <v>香川県済生会病院なでしこ保育所</v>
@@ -1444,10 +1444,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>34.235785</v>
+        <v>34.235767</v>
       </c>
       <c r="C23" t="str">
-        <v>134.020282</v>
+        <v>134.020248</v>
       </c>
       <c r="D23" t="str">
         <v>いわき託児所</v>
@@ -1491,10 +1491,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>34.306836</v>
+        <v>34.307365</v>
       </c>
       <c r="C24" t="str">
-        <v>134.031185</v>
+        <v>134.031306</v>
       </c>
       <c r="D24" t="str">
         <v>社会福祉法人　かがわ総合リハビリテーション事業団　付属保育施設　さくら保育園</v>
@@ -1538,10 +1538,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>34.328181</v>
+        <v>34.328152</v>
       </c>
       <c r="C25" t="str">
-        <v>134.049893</v>
+        <v>134.049889</v>
       </c>
       <c r="D25" t="str">
         <v>りつりん病院りつりん保育所</v>
@@ -1585,10 +1585,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>34.282687</v>
+        <v>34.282527</v>
       </c>
       <c r="C26" t="str">
-        <v>134.040472</v>
+        <v>134.039249</v>
       </c>
       <c r="D26" t="str">
         <v>高松市立みんなの病院院内保育所「どんぐり」</v>
@@ -1632,10 +1632,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.319461</v>
+        <v>34.31959</v>
       </c>
       <c r="C27" t="str">
-        <v>134.111168</v>
+        <v>134.110738</v>
       </c>
       <c r="D27" t="str">
         <v>独立行政法人国立病院機構高松医療センターさくら保育所</v>
@@ -1679,10 +1679,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>34.301821</v>
+        <v>34.301827</v>
       </c>
       <c r="C28" t="str">
-        <v>134.074037</v>
+        <v>134.074024</v>
       </c>
       <c r="D28" t="str">
         <v>香川ヤクルト販売㈱　中央保育所</v>
@@ -1726,10 +1726,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>34.279641</v>
+        <v>34.27964</v>
       </c>
       <c r="C29" t="str">
-        <v>134.026946</v>
+        <v>134.026954</v>
       </c>
       <c r="D29" t="str">
         <v>香川ヤクルト販売㈱　一宮保育所</v>
@@ -1773,10 +1773,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>34.33709</v>
+        <v>34.337104</v>
       </c>
       <c r="C30" t="str">
-        <v>134.154796</v>
+        <v>134.154801</v>
       </c>
       <c r="D30" t="str">
         <v>香川ヤクルト販売㈱　牟礼保育所</v>
@@ -1820,10 +1820,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>34.291931</v>
+        <v>34.291972</v>
       </c>
       <c r="C31" t="str">
-        <v>133.957793</v>
+        <v>133.957808</v>
       </c>
       <c r="D31" t="str">
         <v>モン　シュシュ</v>
@@ -1867,10 +1867,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>34.342246</v>
+        <v>34.342213</v>
       </c>
       <c r="C32" t="str">
-        <v>134.069232</v>
+        <v>134.069237</v>
       </c>
       <c r="D32" t="str">
         <v>あおぞら園（休止中）</v>
@@ -1914,10 +1914,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>34.30606</v>
+        <v>34.306063</v>
       </c>
       <c r="C33" t="str">
-        <v>134.069452</v>
+        <v>134.069463</v>
       </c>
       <c r="D33" t="str">
         <v>日本エネルギー総合システム託児所</v>
@@ -1961,10 +1961,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>0</v>
+        <v>34.309614</v>
       </c>
       <c r="C34" t="str">
-        <v>0</v>
+        <v>134.046213</v>
       </c>
       <c r="D34" t="str">
         <v>にこにこ保育教育研究センター附属保育園（休止中）</v>

--- a/data/unapproved_childcare_facilities/data.xlsx
+++ b/data/unapproved_childcare_facilities/data.xlsx
@@ -1102,7 +1102,7 @@
         <v>1～5歳児</v>
       </c>
       <c r="N15" t="str">
-        <v>月極め、夏/冬/春休み短期プログラム</v>
+        <v>月極め、春/冬/春休み短期プログラム</v>
       </c>
       <c r="O15" t="str">
         <v>構造：鉄筋コンクリート5階建ての2階（事務所用建物）、保育室：72.85㎡、屋外：なし</v>
@@ -1222,7 +1222,7 @@
         <v>087-811-3333</v>
       </c>
       <c r="G18" t="str">
-        <v>香川県立中央病院　院長　河内　正光</v>
+        <v>香川県立中央病院　院長　高口　浩一</v>
       </c>
       <c r="H18" t="str">
         <v>S49.9.2</v>
@@ -1246,7 +1246,7 @@
         <v>月極め、一時預かり、夜間保育</v>
       </c>
       <c r="O18" t="str">
-        <v>構造：木造1階建て（専用建物）、保育室：135.90㎡、屋外：あり</v>
+        <v>構造：木造1階建て（専用建物）、保育室：27.75㎡、屋外：133.73㎡135.90㎡屋外：あり</v>
       </c>
     </row>
     <row r="19">
@@ -1293,7 +1293,7 @@
         <v>月極め、一時預かり</v>
       </c>
       <c r="O19" t="str">
-        <v>構造：鉄筋コンクリート造4階建ての2階（病院建物）、保育室：84.2㎡、屋外：126㎡</v>
+        <v>構造：鉄筋コンクリート造4階建ての2階（病院建物）、保育室：188.6㎡、屋外：264㎡</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1316,7 @@
         <v>087-813-2056</v>
       </c>
       <c r="G20" t="str">
-        <v>高松赤十字病院　院長　西村　和修</v>
+        <v>高松赤十字病院　院長　西村　健夫</v>
       </c>
       <c r="H20" t="str">
         <v>H15.11.1</v>
@@ -1465,16 +1465,16 @@
         <v>H10.10.1</v>
       </c>
       <c r="I23" t="str">
-        <v>8：00～17：30</v>
+        <v>ー</v>
       </c>
       <c r="J23" t="str">
-        <v>8：00～17：30</v>
+        <v>ー</v>
       </c>
       <c r="K23" t="str">
-        <v>休</v>
+        <v>ー</v>
       </c>
       <c r="L23" t="str">
-        <v>15</v>
+        <v>ー</v>
       </c>
       <c r="M23" t="str">
         <v>3ヶ月～5歳児</v>
@@ -1515,7 +1515,7 @@
         <v>8：00～18：00（18：00～8：00）</v>
       </c>
       <c r="J24" t="str">
-        <v>8：00～18：00</v>
+        <v>8：00～18：00利用児がいるときのみ開所</v>
       </c>
       <c r="K24" t="str">
         <v>8：00～18：00</v>
@@ -1885,19 +1885,19 @@
         <v>四国産業株式会社　代表取締役社長　鈴木　正人</v>
       </c>
       <c r="H32" t="str">
-        <v>H29.6.1</v>
+        <v>R4.6.1</v>
       </c>
       <c r="I32" t="str">
-        <v>ー</v>
+        <v>8：45～16：45</v>
       </c>
       <c r="J32" t="str">
-        <v>ー</v>
+        <v>休</v>
       </c>
       <c r="K32" t="str">
-        <v>ー</v>
+        <v>休</v>
       </c>
       <c r="L32" t="str">
-        <v>ー</v>
+        <v>5</v>
       </c>
       <c r="M32" t="str">
         <v>6ヶ月～5歳児</v>
@@ -1944,7 +1944,7 @@
         <v>8：45～18：15</v>
       </c>
       <c r="L33" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="str">
         <v>0～5歳児</v>
@@ -1973,34 +1973,34 @@
         <v>761-8073 高松市太田下町2350-1</v>
       </c>
       <c r="F34" t="str">
-        <v>087-880-0252</v>
+        <v>087-802-5360</v>
       </c>
       <c r="G34" t="str">
         <v>株式会社チャイルドケア二四　代表取締役　梶尾　裕子</v>
       </c>
       <c r="H34" t="str">
-        <v>3/25/2021</v>
+        <v>R4.4.1</v>
       </c>
       <c r="I34" t="str">
-        <v>ー</v>
+        <v>7：30～78：30（18：30～19：00）</v>
       </c>
       <c r="J34" t="str">
-        <v>ー</v>
+        <v>7：30～18：30（18：30～19：00）</v>
       </c>
       <c r="K34" t="str">
-        <v>ー</v>
+        <v>休</v>
       </c>
       <c r="L34" t="str">
-        <v>ー</v>
+        <v>60</v>
       </c>
       <c r="M34" t="str">
-        <v>0～5歳児</v>
+        <v>3～5歳児</v>
       </c>
       <c r="N34" t="str">
-        <v>月極め、一時預かり</v>
+        <v>月極め</v>
       </c>
       <c r="O34" t="str">
-        <v>構造：鉄骨造1階建て（事務所用建物）、保育室：140.51㎡、屋外：906.49㎡</v>
+        <v>構造：鉄骨造2階建ての1階（専用建物）、保育室：132.84㎡、屋外：なし</v>
       </c>
     </row>
   </sheetData>
